--- a/data/network_share/clients/acme_corporation/sales_2026.xlsx
+++ b/data/network_share/clients/acme_corporation/sales_2026.xlsx
@@ -458,7 +458,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46043</v>
+        <v>46045</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46043</v>
+        <v>46045</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
